--- a/BalanceSheet/FMC_bal.xlsx
+++ b/BalanceSheet/FMC_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>82000000.0</v>
+        <v>1096000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-9300000.0</v>
+        <v>1156000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-69100000.0</v>
+        <v>1139000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-63300000.0</v>
+        <v>1063000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>158200000.0</v>
+        <v>1017000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1167400000.0</v>
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>204600000.0</v>
+        <v>947000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-77700000.0</v>
+        <v>757000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3000000.0</v>
+        <v>842000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-68100000.0</v>
+        <v>838000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>222400000.0</v>
+        <v>900000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>667000000.0</v>
@@ -2794,19 +2794,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>31000000.0</v>
+        <v>120000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3200000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>14400000.0</v>
+        <v>99000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>49700000.0</v>
+        <v>76000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>335200000.0</v>
